--- a/participants/participant_50/participant_50_task_orders.xlsx
+++ b/participants/participant_50/participant_50_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731586956775" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731610425963" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731610435636" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731610895622" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731611505973" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912981973264" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912999326546" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291299934654" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912999959936" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502913000837517" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731586626756.csv</t>
+          <t>go_stims-16502912981622672.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873158678713.csv</t>
+          <t>GNG_stims-1650291298179743.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731586796737.csv</t>
+          <t>go_stims-1650291298181682.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731586956775.csv</t>
+          <t>GNG_stims-16502912981953251.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_2-16498731588388743.csv</t>
+          <t>TB-1650291299739449.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498731600525591.csv</t>
+          <t>ZB-match_5-1650291298443221.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1649873159815596.csv</t>
+          <t>ZB-match_2-1650291298536497.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498731596485918.csv</t>
+          <t>TB-16502912999071333.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498731595605624.csv</t>
+          <t>OB-16502912985895226.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498731589065628.csv</t>
+          <t>ZB-match_4-1650291298361807.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1649873159589563.csv</t>
+          <t>TB-16502912992538633.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1649873161016593.csv</t>
+          <t>OB-16502912987249017.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731588708746.csv</t>
+          <t>OB-16502912986166885.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873161058559.csv</t>
+          <t>MM_stims-16502912999484842.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731610455623.csv</t>
+          <t>ZM_stims-16502912999375386.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873161073595.csv</t>
+          <t>MM_stims-1650291299979706.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731610595603.csv</t>
+          <t>ZM_stims-1650291299949486.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731610885987.csv</t>
+          <t>MM_stims-16502912999949915.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731610745647.csv</t>
+          <t>ZM_stims-16502912999807098.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731610925612.csv</t>
+          <t>SAT_stims-16502913000252647.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731611345963.csv</t>
+          <t>SAT_stims-16502913000004067.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731611045616.csv</t>
+          <t>vSAT_stims-16502913000418155.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731611195958.csv</t>
+          <t>vSAT_stims-16502913000577142.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_50/participant_50_task_orders.xlsx
+++ b/participants/participant_50/participant_50_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912981973264" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912999326546" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291299934654" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912999959936" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502913000837517" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650477900866292" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504779024545095" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504779024555125" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477902517622" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477902597622" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912981622672.csv</t>
+          <t>go_stims-16504779008374276.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291298179743.csv</t>
+          <t>GNG_stims-16504779008492923.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291298181682.csv</t>
+          <t>go_stims-1650477900850293.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912981953251.csv</t>
+          <t>GNG_stims-16504779008653271.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650291299739449.csv</t>
+          <t>OB-16504779015512938.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_5-1650291298443221.csv</t>
+          <t>TB-16504779021853266.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-1650291298536497.csv</t>
+          <t>ZB-match_1-16504779010212982.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912999071333.csv</t>
+          <t>OB-1650477902050293.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912985895226.csv</t>
+          <t>TB-16504779023723285.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650291298361807.csv</t>
+          <t>TB-16504779024063253.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912992538633.csv</t>
+          <t>ZB-match_2-16504779010742977.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502912987249017.csv</t>
+          <t>ZB-match_4-16504779011262965.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16502912986166885.csv</t>
+          <t>OB-16504779013922956.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912999484842.csv</t>
+          <t>MM_stims-16504779024856215.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912999375386.csv</t>
+          <t>ZM_stims-16504779024595833.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291299979706.csv</t>
+          <t>MM_stims-16504779025016217.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291299949486.csv</t>
+          <t>ZM_stims-1650477902486588.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912999949915.csv</t>
+          <t>MM_stims-1650477902517622.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912999807098.csv</t>
+          <t>ZM_stims-16504779025025935.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502913000252647.csv</t>
+          <t>SAT_stims-16504779025255876.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16502913000004067.csv</t>
+          <t>vSAT_stims-16504779025656056.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502913000418155.csv</t>
+          <t>SAT_stims-16504779025496233.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502913000577142.csv</t>
+          <t>vSAT_stims-1650477902581625.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_50/participant_50_task_orders.xlsx
+++ b/participants/participant_50/participant_50_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650477900866292" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504779024545095" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504779024555125" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477902517622" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477902597622" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509962046071513" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996206111124" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996206111124" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509962061591296" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509962062231512" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504779008374276.csv</t>
+          <t>go_stims-16509962045751183.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504779008492923.csv</t>
+          <t>GNG_stims-1650996204591153.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650477900850293.csv</t>
+          <t>go_stims-1650996204591153.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504779008653271.csv</t>
+          <t>GNG_stims-16509962046071513.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504779015512938.csv</t>
+          <t>ZB-match_4-16509962047991204.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16504779021853266.csv</t>
+          <t>OB-16509962054951217.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504779010212982.csv</t>
+          <t>TB-16509962058231525.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650477902050293.csv</t>
+          <t>TB-16509962060951233.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16504779023723285.csv</t>
+          <t>ZB-match_5-16509962046791196.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16504779024063253.csv</t>
+          <t>OB-16509962051591196.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504779010742977.csv</t>
+          <t>TB-16509962060471582.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504779011262965.csv</t>
+          <t>ZB-match_2-16509962048311222.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504779013922956.csv</t>
+          <t>OB-16509962053111174.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504779024856215.csv</t>
+          <t>MM_stims-16509962061271274.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504779024595833.csv</t>
+          <t>ZM_stims-1650996206111124.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504779025016217.csv</t>
+          <t>MM_stims-16509962061431558.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477902486588.csv</t>
+          <t>ZM_stims-16509962061271274.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477902517622.csv</t>
+          <t>MM_stims-16509962061591296.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504779025025935.csv</t>
+          <t>ZM_stims-16509962061431558.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504779025255876.csv</t>
+          <t>SAT_stims-16509962061591296.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504779025656056.csv</t>
+          <t>vSAT_stims-16509962061911545.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504779025496233.csv</t>
+          <t>vSAT_stims-16509962062071204.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477902581625.csv</t>
+          <t>SAT_stims-16509962061751244.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_50/participant_50_task_orders.xlsx
+++ b/participants/participant_50/participant_50_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509962046071513" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996206111124" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996206111124" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509962061591296" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509962062231512" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511688082662454" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-165116881049084" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-165116881049084" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168810537726" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511688106002223" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509962045751183.csv</t>
+          <t>go_stims-16511688082242475.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996204591153.csv</t>
+          <t>GNG_stims-1651168808249284.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650996204591153.csv</t>
+          <t>go_stims-16511688082502444.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509962046071513.csv</t>
+          <t>GNG_stims-16511688082652793.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509962047991204.csv</t>
+          <t>OB-16511688093191643.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16509962054951217.csv</t>
+          <t>ZB-match_7-16511688088817482.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16509962058231525.csv</t>
+          <t>TB-16511688104752204.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509962060951233.csv</t>
+          <t>ZB-match_4-16511688090970514.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509962046791196.csv</t>
+          <t>OB-16511688091763167.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509962051591196.csv</t>
+          <t>TB-16511688098492103.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16509962060471582.csv</t>
+          <t>OB-16511688092382138.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509962048311222.csv</t>
+          <t>ZB-match_3-16511688083462481.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509962053111174.csv</t>
+          <t>TB-16511688097867117.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509962061271274.csv</t>
+          <t>MM_stims-1651168810506471.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996206111124.csv</t>
+          <t>ZM_stims-165116881049084.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509962061431558.csv</t>
+          <t>MM_stims-16511688105220623.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509962061271274.csv</t>
+          <t>ZM_stims-1651168810506471.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509962061591296.csv</t>
+          <t>MM_stims-1651168810537726.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509962061431558.csv</t>
+          <t>ZM_stims-16511688105220623.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509962061591296.csv</t>
+          <t>SAT_stims-16511688105533123.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509962061911545.csv</t>
+          <t>SAT_stims-1651168810537726.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509962062071204.csv</t>
+          <t>vSAT_stims-16511688105845978.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16509962061751244.csv</t>
+          <t>vSAT_stims-16511688105689871.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_50/participant_50_task_orders.xlsx
+++ b/participants/participant_50/participant_50_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511688082662454" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-165116881049084" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-165116881049084" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168810537726" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511688106002223" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512556372807684" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512556399811816" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255639989003" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512556400449636" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512556401215255" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511688082242475.csv</t>
+          <t>go_stims-16512556372434235.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168808249284.csv</t>
+          <t>GNG_stims-16512556372617638.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511688082502444.csv</t>
+          <t>go_stims-1651255637263763.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511688082652793.csv</t>
+          <t>GNG_stims-16512556372777646.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511688093191643.csv</t>
+          <t>TB-16512556388316116.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_7-16511688088817482.csv</t>
+          <t>TB-16512556386112998.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511688104752204.csv</t>
+          <t>OB-16512556382594776.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16511688090970514.csv</t>
+          <t>ZB-match_4-16512556376046185.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16511688091763167.csv</t>
+          <t>TB-16512556399678848.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511688098492103.csv</t>
+          <t>ZB-match_9-16512556377324433.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511688092382138.csv</t>
+          <t>OB-16512556379240463.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_3-16511688083462481.csv</t>
+          <t>ZB-match_6-16512556373178973.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16511688097867117.csv</t>
+          <t>OB-1651255638014144.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168810506471.csv</t>
+          <t>MM_stims-16512556400125527.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-165116881049084.csv</t>
+          <t>ZM_stims-1651255639991002.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511688105220623.csv</t>
+          <t>MM_stims-16512556400283859.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168810506471.csv</t>
+          <t>ZM_stims-16512556400135543.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168810537726.csv</t>
+          <t>MM_stims-1651255640043966.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511688105220623.csv</t>
+          <t>ZM_stims-16512556400293305.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511688105533123.csv</t>
+          <t>vSAT_stims-1651255640090309.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1651168810537726.csv</t>
+          <t>vSAT_stims-16512556401056747.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511688105845978.csv</t>
+          <t>SAT_stims-165125564007518.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511688105689871.csv</t>
+          <t>SAT_stims-1651255640051075.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_50/participant_50_task_orders.xlsx
+++ b/participants/participant_50/participant_50_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512556372807684" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512556399811816" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255639989003" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512556400449636" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512556401215255" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-16515890497723918" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-1651589049803607" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-1651589049866109" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NB_TO-16515890512542582" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TOL_TO-16515890513010755" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,6 +429,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eyes closed</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -450,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512556372434235.csv</t>
+          <t>go_stims-16515890497723918.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556372617638.csv</t>
+          <t>GNG_stims-1651589049787999.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255637263763.csv</t>
+          <t>go_stims-1651589049787999.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512556372777646.csv</t>
+          <t>GNG_stims-1651589049803607.csv</t>
         </is>
       </c>
     </row>
@@ -489,7 +535,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515890498192306.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515890498504803.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515890498348553.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-1651589049803607.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512556388316116.csv</t>
+          <t>OB-16515890504950366.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512556386112998.csv</t>
+          <t>TB-16515890506221538.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16512556382594776.csv</t>
+          <t>OB-16515890505909398.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-16512556376046185.csv</t>
+          <t>ZB-match_5-16515890501256156.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512556399678848.csv</t>
+          <t>TB-16515890508119173.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512556377324433.csv</t>
+          <t>ZB-match_5-16515890500787754.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512556379240463.csv</t>
+          <t>ZB-match_9-1651589050141241.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +698,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_6-16512556373178973.csv</t>
+          <t>OB-16515890505753198.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651255638014144.csv</t>
+          <t>TB-165158905123862.csv</t>
         </is>
       </c>
     </row>
@@ -605,53 +717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>eyes open</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +744,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512556400125527.csv</t>
+          <t>MM_stims-16515890512698603.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +754,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651255639991002.csv</t>
+          <t>ZM_stims-16515890512542582.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +764,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512556400283859.csv</t>
+          <t>MM_stims-16515890512854838.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +774,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556400135543.csv</t>
+          <t>ZM_stims-16515890512698603.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +784,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651255640043966.csv</t>
+          <t>MM_stims-16515890513010755.csv</t>
         </is>
       </c>
     </row>
@@ -728,73 +794,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512556400293305.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vSAT_stims-1651255640090309.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vSAT_stims-16512556401056747.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SAT_stims-165125564007518.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAT_stims-1651255640051075.csv</t>
+          <t>ZM_stims-16515890512854838.csv</t>
         </is>
       </c>
     </row>
